--- a/Code description.xlsx
+++ b/Code description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasni\Desktop\COURSEWORK\Data Privacy\group project\codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE8271-6A57-4FA9-B006-A4F6FD8564DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4978C5E-EBBA-475D-9B64-31DBFD6642BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -82,9 +82,6 @@
     <t>colab notebook/zeroShot ChatGPT PrivacyPolicy 04/09/2025.ipynb</t>
   </si>
   <si>
-    <t>This notebook extract information from privacy policies with zero shot learning for multiple companies</t>
-  </si>
-  <si>
     <t>python scripts/combineJson.py</t>
   </si>
   <si>
@@ -113,6 +110,15 @@
   </si>
   <si>
     <t>This script develops the Graphics interface for data visualization</t>
+  </si>
+  <si>
+    <t>colab notebook/JsonAnalysis_05_06_2025.ipynb</t>
+  </si>
+  <si>
+    <t>This notebook extracts information from privacy policies with zero shot learning for multiple companies</t>
+  </si>
+  <si>
+    <t>This notebook analyses statistical features of the json file</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -478,47 +484,55 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
